--- a/data/trans_orig/IP36_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP36_2023-Habitat-trans_orig.xlsx
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -1313,7 +1313,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>51,49%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>25,07%</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>25,62%</t>
         </is>
       </c>
     </row>
@@ -1547,12 +1547,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,81%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>79,63%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>47,31%</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>28,72%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>38,81%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>21,05%</t>
         </is>
       </c>
     </row>
@@ -1831,12 +1831,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>86,85%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1852,12 +1852,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>43,66%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>63,78%</t>
+          <t>65,91%</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>11,63%</t>
         </is>
       </c>
     </row>
@@ -2119,12 +2119,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>38,63%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>26,39%</t>
         </is>
       </c>
     </row>
@@ -2190,12 +2190,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>67,9%</t>
+          <t>64,66%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>70,72%</t>
+          <t>67,47%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>58,69%</t>
+          <t>59,15%</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>8,59%</t>
         </is>
       </c>
     </row>
@@ -2474,12 +2474,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>59,55%</t>
+          <t>60,72%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2495,12 +2495,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>66,62%</t>
+          <t>68,5%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>57,34%</t>
+          <t>56,09%</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>24,18%</t>
         </is>
       </c>
     </row>
@@ -2762,12 +2762,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>78,75%</t>
+          <t>76,18%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2783,12 +2783,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>88,47%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>35,42%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>78,61%</t>
+          <t>77,77%</t>
         </is>
       </c>
     </row>
@@ -2833,12 +2833,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>81,69%</t>
+          <t>82,35%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>41,58%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2875,12 +2875,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>47,47%</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>17,2%</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>49,77%</t>
+          <t>50,47%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>36,57%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>28,24%</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>12,37%</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>12,99%</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3497,12 +3497,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>58,21%</t>
+          <t>59,49%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3518,12 +3518,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>46,79%</t>
+          <t>45,36%</t>
         </is>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>13,51%</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>14,58%</t>
         </is>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>67,52%</t>
+          <t>65,82%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>30,11%</t>
         </is>
       </c>
     </row>
@@ -3760,12 +3760,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>70,26%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3802,12 +3802,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>68,19%</t>
         </is>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>8,37%</t>
         </is>
       </c>
     </row>
@@ -4048,12 +4048,12 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
@@ -4069,12 +4069,12 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="M51" s="2" t="n">
@@ -4090,12 +4090,12 @@
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>23,75%</t>
         </is>
       </c>
     </row>
@@ -4119,12 +4119,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>41,73%</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -4332,12 +4332,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4374,12 +4374,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>10,96%</t>
         </is>
       </c>
     </row>
@@ -4403,12 +4403,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>60,12%</t>
+          <t>60,46%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4445,12 +4445,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>48,76%</t>
+          <t>48,23%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IP36_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP36_2023-Habitat-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,13 +537,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Adultos según su situación laboral actual en 2023 (Tasa respuesta: 7,19%)</t>
+          <t>Adultos según su situación laboral actual en 2023 (Tasa respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -552,7 +552,7 @@
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="I1" s="3" t="n"/>
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -679,66 +679,66 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>2252</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>434</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>77,15%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>2685</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -750,66 +750,66 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>3074</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>77,15%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>573</v>
+        <v>3363</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,85%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>573</v>
+        <v>6437</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>5,0%</t>
         </is>
       </c>
     </row>
@@ -821,66 +821,66 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>5514</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>1448</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>77,15%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>0</v>
+        <v>6963</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -892,66 +892,66 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>23953</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>77,15%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>18453</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0</v>
+        <v>42406</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>21,12%</t>
         </is>
       </c>
     </row>
@@ -963,66 +963,66 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>77,15%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
+        <v>1329</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>0</v>
+        <v>1949</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>77,15%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -1105,66 +1105,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>14274</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>77,15%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
+        <v>23384</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0</v>
+        <v>37658</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>21,34%</t>
         </is>
       </c>
     </row>
@@ -1176,66 +1176,66 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>514</v>
+        <v>67595</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>57,64%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>49,92%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>65,18%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>471</v>
+        <v>92001</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>65,52%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,37%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>74,7%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>986</v>
+        <v>159596</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>63,25%</t>
+          <t>61,93%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,38%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>68,39%</t>
         </is>
       </c>
     </row>
@@ -1247,10 +1247,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>514</v>
+        <v>117280</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1268,10 +1268,10 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1044</v>
+        <v>140412</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3</v>
+        <v>367</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1559</v>
+        <v>257693</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1339,49 +1339,49 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0</v>
+        <v>2459</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>0</v>
+        <v>2459</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -1393,66 +1393,66 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>1619</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1099</v>
+        <v>6634</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1099</v>
+        <v>8253</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -1464,66 +1464,66 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>854</v>
+        <v>4590</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>717</v>
+        <v>6133</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1572</v>
+        <v>10723</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>4,35%</t>
         </is>
       </c>
     </row>
@@ -1535,66 +1535,66 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1863</v>
+        <v>28416</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>3807</v>
+        <v>35057</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50,76%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>79,63%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5670</v>
+        <v>63473</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>47,31%</t>
+          <t>17,44%</t>
         </is>
       </c>
     </row>
@@ -1606,66 +1606,66 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>1546</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0</v>
+        <v>3854</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>0</v>
+        <v>5399</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>2,5%</t>
         </is>
       </c>
     </row>
@@ -1677,66 +1677,66 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>0</v>
+        <v>1179</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -1748,66 +1748,66 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>935</v>
+        <v>28152</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>656</v>
+        <v>26565</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1591</v>
+        <v>54717</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>16,34%</t>
         </is>
       </c>
     </row>
@@ -1819,66 +1819,66 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>7575</v>
+        <v>125392</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>67,47%</t>
+          <t>65,82%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>86,85%</t>
+          <t>71,74%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>3</v>
+        <v>239</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>1220</v>
+        <v>173952</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>68,21%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>73,6%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>17</v>
+        <v>434</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>8796</v>
+        <v>299345</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>67,19%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>62,37%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>65,91%</t>
+          <t>71,31%</t>
         </is>
       </c>
     </row>
@@ -1890,10 +1890,10 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>11228</v>
+        <v>190512</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1911,10 +1911,10 @@
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>13</v>
+        <v>343</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>7499</v>
+        <v>255035</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="M21" s="2" t="n">
-        <v>33</v>
+        <v>623</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>18728</v>
+        <v>445548</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -1965,66 +1965,66 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0</v>
+        <v>2292</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>1306</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>0</v>
+        <v>3598</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>2,43%</t>
         </is>
       </c>
     </row>
@@ -2036,66 +2036,66 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>657</v>
+        <v>3661</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0</v>
+        <v>2614</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>657</v>
+        <v>6274</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -2107,66 +2107,66 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2293</v>
+        <v>8400</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>1300</v>
+        <v>5893</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3593</v>
+        <v>14293</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>5,89%</t>
         </is>
       </c>
     </row>
@@ -2178,66 +2178,66 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>8720</v>
+        <v>26812</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>64,66%</t>
+          <t>21,0%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>5211</v>
+        <v>26882</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>42,87%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>67,47%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>13931</v>
+        <v>53694</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>59,15%</t>
+          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -2249,66 +2249,66 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0</v>
+        <v>831</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>1923</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0</v>
+        <v>2754</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -2337,49 +2337,49 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P27" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>0,6%</t>
         </is>
       </c>
     </row>
@@ -2391,66 +2391,66 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>352</v>
+        <v>51067</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>55,93%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>396</v>
+        <v>26469</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>748</v>
+        <v>77536</v>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>40,16%</t>
         </is>
       </c>
     </row>
@@ -2462,66 +2462,66 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>8172</v>
+        <v>97339</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>51,12%</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>30,81%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>60,72%</t>
+          <t>61,79%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>5250</v>
+        <v>119772</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>64,64%</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>56,71%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>68,5%</t>
+          <t>71,08%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>13422</v>
+        <v>217111</v>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>45,79%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>56,09%</t>
+          <t>64,72%</t>
         </is>
       </c>
     </row>
@@ -2533,10 +2533,10 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>20194</v>
+        <v>190401</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>12157</v>
+        <v>185286</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
         </is>
       </c>
       <c r="M30" s="2" t="n">
-        <v>47</v>
+        <v>452</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>32351</v>
+        <v>375687</v>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
@@ -2608,66 +2608,66 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>989</v>
+        <v>2392</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>988</v>
+        <v>3724</v>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>2,47%</t>
         </is>
       </c>
     </row>
@@ -2679,66 +2679,66 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0</v>
+        <v>2486</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>2215</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>0</v>
+        <v>4701</v>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
@@ -2750,66 +2750,66 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2308</v>
+        <v>2969</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>76,18%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>4131</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="I33" s="2" t="n">
-        <v>6126</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>66,49%</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>36,9%</t>
-        </is>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
-        <is>
-          <t>87,06%</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>12</v>
-      </c>
       <c r="N33" s="2" t="n">
-        <v>8434</v>
+        <v>7100</v>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>57,32%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>77,77%</t>
+          <t>3,72%</t>
         </is>
       </c>
     </row>
@@ -2821,66 +2821,66 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>2352</v>
+        <v>22392</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>82,35%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>1314</v>
+        <v>25367</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>3666</v>
+        <v>47759</v>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>47,47%</t>
+          <t>17,1%</t>
         </is>
       </c>
     </row>
@@ -2892,66 +2892,66 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0</v>
+        <v>8542</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>5495</v>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>0</v>
+        <v>14037</v>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>6,14%</t>
         </is>
       </c>
     </row>
@@ -2963,66 +2963,66 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>1892</v>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>0</v>
+        <v>2961</v>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>2,36%</t>
         </is>
       </c>
     </row>
@@ -3034,66 +3034,66 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>388</v>
+        <v>13620</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>22624</v>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>388</v>
+        <v>36244</v>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>13,47%</t>
         </is>
       </c>
     </row>
@@ -3105,66 +3105,66 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>453</v>
+        <v>115551</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>68,8%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,11%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>50,47%</t>
+          <t>74,51%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>786</v>
+        <v>117123</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>64,62%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>70,2%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
-        <v>2</v>
+        <v>320</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>1238</v>
+        <v>232675</v>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>66,63%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,15%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>71,03%</t>
         </is>
       </c>
     </row>
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>5501</v>
+        <v>167962</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -3197,10 +3197,10 @@
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>9214</v>
+        <v>181238</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
@@ -3218,10 +3218,10 @@
         </is>
       </c>
       <c r="M39" s="2" t="n">
-        <v>22</v>
+        <v>478</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>14714</v>
+        <v>349201</v>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
@@ -3251,66 +3251,66 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0</v>
+        <v>5875</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
+        <v>6591</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>0</v>
+        <v>12466</v>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -3322,66 +3322,66 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0</v>
+        <v>10839</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>541</v>
+        <v>14826</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>541</v>
+        <v>25665</v>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
@@ -3393,66 +3393,66 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0</v>
+        <v>21474</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>652</v>
+        <v>17605</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>652</v>
+        <v>39079</v>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -3464,66 +3464,66 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>661</v>
+        <v>101573</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>5858</v>
+        <v>105758</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>37,24%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>59,49%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>6519</v>
+        <v>207331</v>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>16,39%</t>
         </is>
       </c>
     </row>
@@ -3535,66 +3535,66 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>661</v>
+        <v>11538</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>12601</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>661</v>
+        <v>24139</v>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>2,38%</t>
         </is>
       </c>
     </row>
@@ -3606,66 +3606,66 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0</v>
+        <v>1866</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>1083</v>
+        <v>2700</v>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>1083</v>
+        <v>4566</v>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
@@ -3677,66 +3677,66 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>2171</v>
+        <v>107113</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>65,82%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>99043</v>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>2171</v>
+        <v>206155</v>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>20,14%</t>
         </is>
       </c>
     </row>
@@ -3748,66 +3748,66 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>6</v>
+        <v>615</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>4918</v>
+        <v>405877</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>58,47%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>51,9%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>65,17%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>12</v>
+        <v>643</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>7595</v>
+        <v>502848</v>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>48,28%</t>
+          <t>65,99%</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
-        <v>18</v>
+        <v>1258</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>12512</v>
+        <v>908725</v>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>51,83%</t>
+          <t>63,63%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>68,19%</t>
+          <t>66,26%</t>
         </is>
       </c>
     </row>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>10</v>
+        <v>943</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>8411</v>
+        <v>666155</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>23</v>
+        <v>977</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>15729</v>
+        <v>761972</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
@@ -3861,10 +3861,10 @@
         </is>
       </c>
       <c r="M48" s="2" t="n">
-        <v>33</v>
+        <v>1920</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>24140</v>
+        <v>1428127</v>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
@@ -3883,657 +3883,14 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>2,77%</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>988</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>7,87%</t>
-        </is>
-      </c>
-      <c r="M49" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>988</v>
-      </c>
-      <c r="O49" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="P49" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>Incapacidad/invalidez permanente</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>657</v>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>7,74%</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>2213</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>15,12%</t>
-        </is>
-      </c>
-      <c r="M50" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>2871</v>
-      </c>
-      <c r="O50" s="2" t="inlineStr">
-        <is>
-          <t>3,14%</t>
-        </is>
-      </c>
-      <c r="P50" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
-        </is>
-      </c>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>8,37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>Estudiante</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>5455</v>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>11,9%</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>4,96%</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>23,61%</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>8795</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>19,27%</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>10,58%</t>
-        </is>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>30,07%</t>
-        </is>
-      </c>
-      <c r="M51" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>14250</v>
-      </c>
-      <c r="O51" s="2" t="inlineStr">
-        <is>
-          <t>15,58%</t>
-        </is>
-      </c>
-      <c r="P51" s="2" t="inlineStr">
-        <is>
-          <t>10,14%</t>
-        </is>
-      </c>
-      <c r="Q51" s="2" t="inlineStr">
-        <is>
-          <t>23,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>Sus labores/Ama de casa</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>13596</v>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>29,65%</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>18,58%</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>43,37%</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>16190</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>35,47%</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>24,43%</t>
-        </is>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>46,94%</t>
-        </is>
-      </c>
-      <c r="M52" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="N52" s="2" t="n">
-        <v>29786</v>
-      </c>
-      <c r="O52" s="2" t="inlineStr">
-        <is>
-          <t>32,56%</t>
-        </is>
-      </c>
-      <c r="P52" s="2" t="inlineStr">
-        <is>
-          <t>24,49%</t>
-        </is>
-      </c>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>41,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>Jubilado (trabajó anteriormente)</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>661</v>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>1,44%</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>7,51%</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>2,7%</t>
-        </is>
-      </c>
-      <c r="M53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" s="2" t="n">
-        <v>661</v>
-      </c>
-      <c r="O53" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="P53" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="Q53" s="2" t="inlineStr">
-        <is>
-          <t>3,59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>Busca primer empleo</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>2,77%</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>1083</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>7,55%</t>
-        </is>
-      </c>
-      <c r="M54" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N54" s="2" t="n">
-        <v>1083</v>
-      </c>
-      <c r="O54" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>Está en el paro y ha trabajado antes</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>3846</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>8,39%</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>20,63%</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>1052</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>8,5%</t>
-        </is>
-      </c>
-      <c r="M55" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="N55" s="2" t="n">
-        <v>4898</v>
-      </c>
-      <c r="O55" s="2" t="inlineStr">
-        <is>
-          <t>5,35%</t>
-        </is>
-      </c>
-      <c r="P55" s="2" t="inlineStr">
-        <is>
-          <t>2,43%</t>
-        </is>
-      </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>10,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>Trabaja</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>21632</v>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>47,18%</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>34,24%</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>60,46%</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="I56" s="2" t="n">
-        <v>15321</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>33,57%</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="inlineStr">
-        <is>
-          <t>23,19%</t>
-        </is>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
-        <is>
-          <t>45,43%</t>
-        </is>
-      </c>
-      <c r="M56" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="N56" s="2" t="n">
-        <v>36954</v>
-      </c>
-      <c r="O56" s="2" t="inlineStr">
-        <is>
-          <t>40,39%</t>
-        </is>
-      </c>
-      <c r="P56" s="2" t="inlineStr">
-        <is>
-          <t>31,27%</t>
-        </is>
-      </c>
-      <c r="Q56" s="2" t="inlineStr">
-        <is>
-          <t>48,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>45848</v>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>45643</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>91491</v>
-      </c>
-      <c r="O57" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P57" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q57" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A13:A21"/>
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="C1:G1"/>
@@ -4541,7 +3898,6 @@
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A31:A39"/>
-    <mergeCell ref="A49:A57"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A40:A48"/>
   </mergeCells>
